--- a/FlowieeOfficial/src/main/resources/static/templates/excel/Template_E_DanhSachSanPham.xlsx
+++ b/FlowieeOfficial/src/main/resources/static/templates/excel/Template_E_DanhSachSanPham.xlsx
@@ -34,10 +34,10 @@
     <t xml:space="preserve">Loại sản phẩm</t>
   </si>
   <si>
+    <t xml:space="preserve">Mã sản phẩm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tên sản phẩm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mã sản phẩm</t>
   </si>
   <si>
     <t xml:space="preserve">Kích cỡ</t>
@@ -284,20 +284,20 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="41.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="10.25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="8.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="10" style="1" width="8.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
